--- a/기획/QA/(신수철)20200205_AnimalChessTC작성.xlsx
+++ b/기획/QA/(신수철)20200205_AnimalChessTC작성.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mycom\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mycom\Desktop\1team_UnityProject\기획\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E21CC11-A910-4E2A-95D1-C96D9CC8A81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607488E0-FF59-4B4A-9066-40DD8DEC4EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2730" windowWidth="14235" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2월일" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="379">
   <si>
     <t>Animal Chess TC작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1435,14 +1435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범위 변환 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 변환 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코모도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1455,14 +1447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(40,40,40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV1(4,4,4),LV2(8,8,8),LV3(20,20,20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RatSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1471,54 +1455,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(76,76,76)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV1(4,4,4),LV2(8,8,8),LV3(14,14,14)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CrabSkill(이펙트가 빠져있음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(6,6,6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4,4,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrocodileSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,2,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElephantSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(10,10,10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GooseSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(30,30,30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(20,20,20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이펙트 적용대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1527,10 +1467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바꿀것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1539,22 +1475,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트 크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 별 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적용 대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이펙트 방향</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1567,38 +1491,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Perch_fishSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(12,12,12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RabbitSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SalamanderSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(22,22,22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScorpionSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(14,14,14)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0.5,0.5,0.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이펙트 적용 안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1651,14 +1547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트 변경, 대상변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본 파일이 건드려짐(적용대상만 적으로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미래병사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1668,6 +1556,22 @@
   </si>
   <si>
     <t>FutureSFWarriorAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatSkill LV1, RatSkill LV2, RatSkill LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTurretAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 별 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 변경, 대상 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,7 +1702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -2830,63 +2734,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3088,6 +2940,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3143,6 +3004,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3303,39 +3176,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3686,44 +3526,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
       <c r="U3" s="13"/>
       <c r="V3" s="12" t="s">
         <v>141</v>
@@ -3739,10 +3579,10 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3769,21 +3609,21 @@
       <c r="C6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85" t="s">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="19" t="s">
         <v>10</v>
       </c>
@@ -3797,27 +3637,27 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
       <c r="O7" s="17" t="s">
         <v>16</v>
       </c>
@@ -3825,23 +3665,23 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
       <c r="O8" s="17" t="s">
         <v>19</v>
       </c>
@@ -3850,23 +3690,23 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79" t="s">
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
       <c r="O9" s="17" t="s">
         <v>16</v>
       </c>
@@ -3875,23 +3715,23 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="17" t="s">
         <v>16</v>
       </c>
@@ -3900,23 +3740,23 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79" t="s">
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
       <c r="O11" s="17" t="s">
         <v>16</v>
       </c>
@@ -3925,23 +3765,23 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79" t="s">
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
       <c r="O12" s="17" t="s">
         <v>24</v>
       </c>
@@ -3950,23 +3790,23 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="17" t="s">
         <v>24</v>
       </c>
@@ -3975,23 +3815,23 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79" t="s">
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
       <c r="O14" s="17" t="s">
         <v>24</v>
       </c>
@@ -4000,23 +3840,23 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79" t="s">
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
       <c r="O15" s="17" t="s">
         <v>24</v>
       </c>
@@ -4025,23 +3865,23 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79" t="s">
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="17" t="s">
         <v>24</v>
       </c>
@@ -4050,23 +3890,23 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79" t="s">
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
       <c r="O17" s="17" t="s">
         <v>16</v>
       </c>
@@ -4075,25 +3915,25 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="79" t="s">
+      <c r="B18" s="89"/>
+      <c r="C18" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79" t="s">
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
       <c r="O18" s="17" t="s">
         <v>16</v>
       </c>
@@ -4102,23 +3942,23 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79" t="s">
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
       <c r="O19" s="17" t="s">
         <v>16</v>
       </c>
@@ -4127,23 +3967,23 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79" t="s">
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
       <c r="O20" s="17" t="s">
         <v>45</v>
       </c>
@@ -4152,23 +3992,23 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79" t="s">
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
       <c r="O21" s="17" t="s">
         <v>16</v>
       </c>
@@ -4177,23 +4017,23 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79" t="s">
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
       <c r="O22" s="17" t="s">
         <v>16</v>
       </c>
@@ -4202,23 +4042,23 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79" t="s">
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
       <c r="O23" s="17" t="s">
         <v>16</v>
       </c>
@@ -4227,23 +4067,23 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79" t="s">
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
       <c r="O24" s="17" t="s">
         <v>16</v>
       </c>
@@ -4252,23 +4092,23 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79" t="s">
+      <c r="B25" s="89"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79" t="s">
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
       <c r="O25" s="17" t="s">
         <v>16</v>
       </c>
@@ -4277,23 +4117,23 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79" t="s">
+      <c r="B26" s="89"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79" t="s">
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
       <c r="O26" s="17" t="s">
         <v>16</v>
       </c>
@@ -4302,23 +4142,23 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79" t="s">
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
       <c r="O27" s="17" t="s">
         <v>24</v>
       </c>
@@ -4327,23 +4167,23 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79" t="s">
+      <c r="B28" s="89"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79" t="s">
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
       <c r="O28" s="17" t="s">
         <v>24</v>
       </c>
@@ -4352,23 +4192,23 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79" t="s">
+      <c r="B29" s="89"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79" t="s">
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
       <c r="O29" s="17" t="s">
         <v>16</v>
       </c>
@@ -4377,25 +4217,25 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="83" t="s">
+      <c r="B30" s="89"/>
+      <c r="C30" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79" t="s">
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
       <c r="O30" s="17" t="s">
         <v>16</v>
       </c>
@@ -4404,23 +4244,23 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="79" t="s">
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79" t="s">
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
       <c r="O31" s="17" t="s">
         <v>16</v>
       </c>
@@ -4429,23 +4269,23 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="89" t="s">
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="89" t="s">
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="91"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="17" t="s">
         <v>16</v>
       </c>
@@ -4454,23 +4294,23 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="89" t="s">
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="89" t="s">
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="91"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="94"/>
       <c r="O33" s="17" t="s">
         <v>16</v>
       </c>
@@ -4479,23 +4319,23 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="89" t="s">
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="89" t="s">
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="91"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
       <c r="O34" s="17" t="s">
         <v>16</v>
       </c>
@@ -4504,23 +4344,23 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="89" t="s">
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="89" t="s">
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="91"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="94"/>
       <c r="O35" s="17" t="s">
         <v>45</v>
       </c>
@@ -4529,23 +4369,23 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="89" t="s">
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="89" t="s">
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="91"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="94"/>
       <c r="O36" s="17" t="s">
         <v>45</v>
       </c>
@@ -4554,23 +4394,23 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="79" t="s">
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79" t="s">
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
       <c r="O37" s="17" t="s">
         <v>24</v>
       </c>
@@ -4579,23 +4419,23 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="79" t="s">
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79" t="s">
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
       <c r="O38" s="17" t="s">
         <v>107</v>
       </c>
@@ -4604,23 +4444,23 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="79" t="s">
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79" t="s">
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
       <c r="O39" s="17" t="s">
         <v>16</v>
       </c>
@@ -4629,23 +4469,23 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="79" t="s">
+      <c r="B40" s="89"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79" t="s">
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
       <c r="O40" s="17" t="s">
         <v>16</v>
       </c>
@@ -4654,23 +4494,23 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="79" t="s">
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79" t="s">
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
       <c r="O41" s="17" t="s">
         <v>16</v>
       </c>
@@ -4679,23 +4519,23 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="79" t="s">
+      <c r="B42" s="89"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79" t="s">
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
       <c r="O42" s="17" t="s">
         <v>16</v>
       </c>
@@ -4704,25 +4544,25 @@
     </row>
     <row r="43" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="83" t="s">
+      <c r="B43" s="89"/>
+      <c r="C43" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="79" t="s">
+      <c r="D43" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79" t="s">
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
       <c r="O43" s="17" t="s">
         <v>16</v>
       </c>
@@ -4731,23 +4571,23 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="79" t="s">
+      <c r="B44" s="89"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79" t="s">
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
       <c r="O44" s="17" t="s">
         <v>16</v>
       </c>
@@ -4756,23 +4596,23 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="79" t="s">
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79" t="s">
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
       <c r="O45" s="17" t="s">
         <v>16</v>
       </c>
@@ -4781,23 +4621,23 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="79" t="s">
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79" t="s">
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
       <c r="O46" s="17" t="s">
         <v>16</v>
       </c>
@@ -4806,23 +4646,23 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="79" t="s">
+      <c r="B47" s="89"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79" t="s">
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
       <c r="O47" s="17" t="s">
         <v>16</v>
       </c>
@@ -4831,23 +4671,23 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="79" t="s">
+      <c r="B48" s="89"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79" t="s">
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
       <c r="O48" s="17" t="s">
         <v>16</v>
       </c>
@@ -4856,23 +4696,23 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="79" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79" t="s">
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
       <c r="O49" s="17" t="s">
         <v>16</v>
       </c>
@@ -4881,23 +4721,23 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="79" t="s">
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79" t="s">
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
       <c r="O50" s="17" t="s">
         <v>16</v>
       </c>
@@ -4906,23 +4746,23 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="79" t="s">
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79" t="s">
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
       <c r="O51" s="17" t="s">
         <v>16</v>
       </c>
@@ -4931,23 +4771,23 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="79" t="s">
+      <c r="B52" s="89"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79" t="s">
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
       <c r="O52" s="17" t="s">
         <v>16</v>
       </c>
@@ -4956,23 +4796,23 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="79" t="s">
+      <c r="B53" s="89"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79" t="s">
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
       <c r="O53" s="17" t="s">
         <v>16</v>
       </c>
@@ -4981,25 +4821,25 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="79" t="s">
+      <c r="B54" s="89"/>
+      <c r="C54" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="79" t="s">
+      <c r="D54" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79" t="s">
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
       <c r="O54" s="17" t="s">
         <v>24</v>
       </c>
@@ -5008,23 +4848,23 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79" t="s">
+      <c r="B55" s="89"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79" t="s">
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
       <c r="O55" s="17" t="s">
         <v>24</v>
       </c>
@@ -5033,23 +4873,23 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79" t="s">
+      <c r="B56" s="89"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79" t="s">
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
       <c r="O56" s="17" t="s">
         <v>45</v>
       </c>
@@ -5058,23 +4898,23 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79" t="s">
+      <c r="B57" s="89"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79" t="s">
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
       <c r="O57" s="17" t="s">
         <v>24</v>
       </c>
@@ -5083,23 +4923,23 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="79" t="s">
+      <c r="B58" s="96"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79" t="s">
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
       <c r="O58" s="17" t="s">
         <v>24</v>
       </c>
@@ -5108,23 +4948,23 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="80" t="s">
+      <c r="B59" s="96"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80" t="s">
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
       <c r="O59" s="17" t="s">
         <v>24</v>
       </c>
@@ -5133,23 +4973,23 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="80" t="s">
+      <c r="B60" s="97"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80" t="s">
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
       <c r="O60" s="17" t="s">
         <v>24</v>
       </c>
@@ -5174,10 +5014,10 @@
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="82"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -5199,21 +5039,21 @@
       <c r="C63" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="85" t="s">
+      <c r="D63" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85" t="s">
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="85"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
       <c r="O63" s="19" t="s">
         <v>10</v>
       </c>
@@ -5222,261 +5062,261 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="79" t="s">
+      <c r="D64" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79" t="s">
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
       <c r="O64" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P64" s="6"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="86"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79" t="s">
+      <c r="B65" s="89"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79" t="s">
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
       <c r="O65" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="86"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79" t="s">
+      <c r="B66" s="89"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79" t="s">
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
       <c r="O66" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P66" s="6"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="86"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79" t="s">
+      <c r="B67" s="89"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79" t="s">
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
       <c r="O67" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P67" s="6"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="86"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79" t="s">
+      <c r="B68" s="89"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79" t="s">
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
       <c r="O68" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P68" s="6"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="86"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79" t="s">
+      <c r="B69" s="89"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79" t="s">
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
+      <c r="K69" s="82"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
       <c r="O69" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="86"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79" t="s">
+      <c r="B70" s="89"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79" t="s">
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
       <c r="O70" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P70" s="6"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="86"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79" t="s">
+      <c r="B71" s="89"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79" t="s">
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
+      <c r="J71" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
+      <c r="K71" s="82"/>
+      <c r="L71" s="82"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="82"/>
       <c r="O71" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="86"/>
+      <c r="B72" s="89"/>
       <c r="C72" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="79" t="s">
+      <c r="D72" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79" t="s">
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
+      <c r="J72" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
+      <c r="K72" s="82"/>
+      <c r="L72" s="82"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="82"/>
       <c r="O72" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P72" s="6"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="86"/>
+      <c r="B73" s="89"/>
       <c r="C73" s="17"/>
-      <c r="D73" s="79" t="s">
+      <c r="D73" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79" t="s">
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
+      <c r="K73" s="82"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="82"/>
       <c r="O73" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="86"/>
+      <c r="B74" s="89"/>
       <c r="C74" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="79" t="s">
+      <c r="D74" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79" t="s">
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="82"/>
+      <c r="J74" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
+      <c r="K74" s="82"/>
+      <c r="L74" s="82"/>
+      <c r="M74" s="82"/>
+      <c r="N74" s="82"/>
       <c r="O74" s="17" t="s">
         <v>24</v>
       </c>
@@ -5517,6 +5357,12 @@
     <mergeCell ref="J23:N23"/>
     <mergeCell ref="D24:I24"/>
     <mergeCell ref="J24:N24"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="J38:N38"/>
     <mergeCell ref="D25:I25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="C18:C29"/>
@@ -5535,15 +5381,6 @@
     <mergeCell ref="J27:N27"/>
     <mergeCell ref="D28:I28"/>
     <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="J38:N38"/>
     <mergeCell ref="D39:I39"/>
     <mergeCell ref="J39:N39"/>
     <mergeCell ref="C30:C42"/>
@@ -5559,6 +5396,9 @@
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="J36:N36"/>
     <mergeCell ref="D40:I40"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="J34:N34"/>
     <mergeCell ref="J48:N48"/>
     <mergeCell ref="D49:I49"/>
     <mergeCell ref="J49:N49"/>
@@ -5657,44 +5497,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
@@ -5717,382 +5557,382 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="156" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="160"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
       <c r="R5" s="20" t="s">
         <v>144</v>
       </c>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="156">
+      <c r="B6" s="79">
         <v>1</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="158" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="156" t="s">
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="J6" s="158" t="s">
+      <c r="J6" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="160"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="104"/>
       <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="156">
+      <c r="B7" s="79">
         <v>2</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="156" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="J7" s="158" t="s">
+      <c r="J7" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="160"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="104"/>
       <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.3">
-      <c r="B8" s="156">
+      <c r="B8" s="79">
         <v>3</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="158" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="102" t="s">
         <v>310</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="161" t="s">
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="81" t="s">
         <v>311</v>
       </c>
-      <c r="J8" s="158" t="s">
+      <c r="J8" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="160"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104"/>
       <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="156">
+      <c r="B9" s="79">
         <v>4</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="156" t="s">
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="J9" s="158" t="s">
+      <c r="J9" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="160"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="104"/>
       <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="156">
+      <c r="B10" s="79">
         <v>5</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="158" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="102" t="s">
         <v>316</v>
       </c>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="156" t="s">
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="79" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="158" t="s">
+      <c r="J10" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="160"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="156">
+      <c r="B11" s="79">
         <v>6</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="156" t="s">
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="J11" s="158" t="s">
+      <c r="J11" s="102" t="s">
         <v>321</v>
       </c>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="160"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="104"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="156">
+      <c r="B12" s="79">
         <v>7</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="102" t="s">
         <v>322</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="158" t="s">
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="160"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="104"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="156">
+      <c r="B13" s="79">
         <v>9</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="102" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="156" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="J13" s="158" t="s">
+      <c r="J13" s="102" t="s">
         <v>326</v>
       </c>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="160"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="104"/>
       <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.3">
-      <c r="B14" s="156">
+      <c r="B14" s="79">
         <v>10</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="161" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="81" t="s">
         <v>328</v>
       </c>
-      <c r="J14" s="158" t="s">
+      <c r="J14" s="102" t="s">
         <v>329</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="160"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="104"/>
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.3">
-      <c r="B15" s="156">
+      <c r="B15" s="79">
         <v>11</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158" t="s">
+      <c r="C15" s="80"/>
+      <c r="D15" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="161" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="81" t="s">
         <v>331</v>
       </c>
-      <c r="J15" s="158" t="s">
+      <c r="J15" s="102" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="160"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="104"/>
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="156">
+      <c r="B16" s="79">
         <v>13</v>
       </c>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="102" t="s">
         <v>333</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="156" t="s">
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="79" t="s">
         <v>334</v>
       </c>
-      <c r="J16" s="158" t="s">
+      <c r="J16" s="102" t="s">
         <v>335</v>
       </c>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="160"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="104"/>
       <c r="R16" s="14"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="156">
+      <c r="B17" s="79">
         <v>14</v>
       </c>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="102" t="s">
         <v>336</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="156" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="J17" s="158" t="s">
+      <c r="J17" s="102" t="s">
         <v>338</v>
       </c>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="160"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="104"/>
       <c r="R17" s="14"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="156">
+      <c r="B18" s="79">
         <v>15</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="102" t="s">
         <v>339</v>
       </c>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="158" t="s">
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="102" t="s">
         <v>340</v>
       </c>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="160"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
@@ -6100,24 +5940,24 @@
         <v>16</v>
       </c>
       <c r="C19" s="67"/>
-      <c r="D19" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
+      <c r="D19" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
+        <v>365</v>
+      </c>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="100"/>
       <c r="R19" s="20"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
@@ -6125,22 +5965,22 @@
         <v>17</v>
       </c>
       <c r="C20" s="67"/>
-      <c r="D20" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
+      <c r="D20" s="98" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
       <c r="R20" s="20"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
@@ -6148,22 +5988,22 @@
         <v>18</v>
       </c>
       <c r="C21" s="67"/>
-      <c r="D21" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
+      <c r="D21" s="98" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="100"/>
       <c r="R21" s="20"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
@@ -6171,20 +6011,20 @@
         <v>19</v>
       </c>
       <c r="C22" s="67"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="100"/>
       <c r="R22" s="20"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -6192,20 +6032,20 @@
         <v>20</v>
       </c>
       <c r="C23" s="67"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="100"/>
       <c r="R23" s="20"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
@@ -6213,20 +6053,20 @@
         <v>21</v>
       </c>
       <c r="C24" s="67"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="100"/>
       <c r="R24" s="20"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
@@ -6234,20 +6074,20 @@
         <v>22</v>
       </c>
       <c r="C25" s="67"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="100"/>
       <c r="R25" s="20"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -6255,20 +6095,20 @@
         <v>23</v>
       </c>
       <c r="C26" s="67"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
       <c r="R26" s="20"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
@@ -6276,20 +6116,20 @@
         <v>24</v>
       </c>
       <c r="C27" s="67"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="100"/>
       <c r="R27" s="20"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
@@ -6297,20 +6137,20 @@
         <v>25</v>
       </c>
       <c r="C28" s="67"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
       <c r="R28" s="20"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
@@ -6318,20 +6158,20 @@
         <v>26</v>
       </c>
       <c r="C29" s="67"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="100"/>
       <c r="R29" s="20"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
@@ -6339,20 +6179,20 @@
         <v>27</v>
       </c>
       <c r="C30" s="67"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
       <c r="I30" s="20"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="100"/>
       <c r="R30" s="20"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
@@ -6360,20 +6200,20 @@
         <v>28</v>
       </c>
       <c r="C31" s="67"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
       <c r="I31" s="20"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="100"/>
       <c r="R31" s="20"/>
     </row>
   </sheetData>
@@ -6446,10 +6286,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J26" sqref="J25:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6459,56 +6299,39 @@
     <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
     <col min="10" max="10" width="41.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="21.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="21.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -6520,94 +6343,62 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="20" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="C5" s="67" t="s">
         <v>341</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" s="95" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="98" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="K5" s="152" t="s">
-        <v>344</v>
-      </c>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
-      <c r="N5" s="152"/>
-      <c r="O5" s="96" t="s">
-        <v>345</v>
-      </c>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="T5" s="20" t="s">
+      <c r="K5" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <v>1</v>
       </c>
       <c r="C6" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="E6" s="95" t="s">
-        <v>347</v>
-      </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="K6" s="152" t="s">
-        <v>349</v>
-      </c>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="96" t="s">
-        <v>350</v>
-      </c>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T6" s="20"/>
-    </row>
-    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20">
         <v>2</v>
       </c>
@@ -6615,36 +6406,24 @@
         <v>181</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K7" s="152" t="s">
-        <v>353</v>
-      </c>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="96" t="s">
-        <v>354</v>
-      </c>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T7" s="20"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="20">
         <v>3</v>
       </c>
@@ -6652,842 +6431,362 @@
         <v>178</v>
       </c>
       <c r="D8" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="20">
+        <v>7</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="20">
+        <v>9</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>13</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>14</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="E8" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="K8" s="152" t="s">
-        <v>356</v>
-      </c>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="96" t="s">
+      <c r="K12" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <v>16</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="K13" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <v>17</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="K14" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T8" s="20"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
-        <v>4</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="E9" s="95" t="s">
-        <v>358</v>
-      </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K9" s="152" t="s">
-        <v>359</v>
-      </c>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="96" t="s">
-        <v>356</v>
-      </c>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="T9" s="20"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
-        <v>5</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="E10" s="95" t="s">
-        <v>360</v>
-      </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K10" s="152" t="s">
-        <v>364</v>
-      </c>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="96" t="s">
-        <v>361</v>
-      </c>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T10" s="20"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
-        <v>6</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>362</v>
-      </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K11" s="152" t="s">
-        <v>363</v>
-      </c>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="96" t="s">
-        <v>361</v>
-      </c>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="T11" s="20"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
-        <v>7</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>375</v>
-      </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K12" s="152" t="s">
-        <v>373</v>
-      </c>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="96" t="s">
-        <v>373</v>
-      </c>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="T12" s="20"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
-        <v>8</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K13" s="152" t="s">
-        <v>378</v>
-      </c>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="96" t="s">
-        <v>364</v>
-      </c>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T13" s="20"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="20">
-        <v>9</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>372</v>
-      </c>
-      <c r="E14" s="95" t="s">
-        <v>379</v>
-      </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K14" s="152" t="s">
-        <v>373</v>
-      </c>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="96" t="s">
-        <v>373</v>
-      </c>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T14" s="20"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="20">
-        <v>10</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="K15" s="152" t="s">
-        <v>381</v>
-      </c>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="96" t="s">
-        <v>357</v>
-      </c>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T15" s="20"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="20">
-        <v>11</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="E16" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="K16" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="96" t="s">
-        <v>361</v>
-      </c>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T16" s="20"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="20">
-        <v>13</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="K17" s="153" t="s">
-        <v>384</v>
-      </c>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="96" t="s">
-        <v>357</v>
-      </c>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="T17" s="20"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="20">
-        <v>14</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="K18" s="152" t="s">
-        <v>373</v>
-      </c>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="96" t="s">
-        <v>373</v>
-      </c>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="68" t="s">
-        <v>396</v>
-      </c>
-      <c r="T18" s="20"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="20">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="20"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="20">
-        <v>16</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>398</v>
-      </c>
-      <c r="E20" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="K20" s="152" t="s">
-        <v>373</v>
-      </c>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="96" t="s">
-        <v>373</v>
-      </c>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="68" t="s">
-        <v>396</v>
-      </c>
-      <c r="T20" s="20"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="20">
-        <v>17</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>400</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>401</v>
-      </c>
-      <c r="E21" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K21" s="152" t="s">
-        <v>373</v>
-      </c>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="96" t="s">
-        <v>373</v>
-      </c>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="T21" s="20"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="20">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="20"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K22" s="68"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="20"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K23" s="68"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="20">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="20"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K24" s="68"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="20">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="20"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="20">
-        <v>22</v>
-      </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="20"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="20">
-        <v>23</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="20"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="20">
-        <v>24</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="20"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="20">
-        <v>25</v>
-      </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="20"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="20">
-        <v>26</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="20"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="20">
-        <v>27</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="20"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="20">
-        <v>28</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="20"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:R27"/>
+  <mergeCells count="22">
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
     <mergeCell ref="E17:I17"/>
     <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="E19:I19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="B2:T3"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="B2:L3"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7582,10 +6881,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="114">
+      <c r="B4" s="121">
         <v>0</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="131" t="s">
         <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -7605,8 +6904,8 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="110"/>
-      <c r="C5" s="125"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="23" t="s">
         <v>199</v>
       </c>
@@ -7624,8 +6923,8 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="110"/>
-      <c r="C6" s="125"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="23" t="s">
         <v>200</v>
       </c>
@@ -7641,21 +6940,21 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114">
+      <c r="B7" s="121">
         <v>1</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="133" t="s">
         <v>152</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>198</v>
       </c>
       <c r="E7" s="72"/>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="105" t="s">
         <v>277</v>
       </c>
       <c r="G7" s="65"/>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="116" t="s">
         <v>278</v>
       </c>
       <c r="I7" s="70"/>
@@ -7664,51 +6963,51 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="110"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="98"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="98"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="13"/>
       <c r="J8" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="110"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E9" s="28"/>
-      <c r="F9" s="99"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="99"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="13"/>
       <c r="J9" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="110">
+      <c r="B10" s="117">
         <v>2</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="128" t="s">
         <v>153</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G10" s="29"/>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="114" t="s">
         <v>279</v>
       </c>
       <c r="I10" s="13"/>
@@ -7717,51 +7016,51 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="110"/>
-      <c r="C11" s="121"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="98"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="98"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="13"/>
       <c r="J11" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="110"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="99"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="99"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="13"/>
       <c r="J12" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="110">
+      <c r="B13" s="117">
         <v>3</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="128" t="s">
         <v>154</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E13" s="28"/>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="107" t="s">
         <v>277</v>
       </c>
       <c r="G13" s="29"/>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="107" t="s">
         <v>280</v>
       </c>
       <c r="I13" s="13"/>
@@ -7770,51 +7069,51 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="110"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="98"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="98"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="13"/>
       <c r="J14" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
-      <c r="C15" s="121"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E15" s="28"/>
-      <c r="F15" s="99"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="99"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="13"/>
       <c r="J15" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="110">
+      <c r="B16" s="117">
         <v>4</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="128" t="s">
         <v>155</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="107" t="s">
         <v>281</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="100" t="s">
+      <c r="H16" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I16" s="13"/>
@@ -7823,51 +7122,51 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="110"/>
-      <c r="C17" s="121"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="98"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="98"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="13"/>
       <c r="J17" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="110"/>
-      <c r="C18" s="121"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="99"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="99"/>
+      <c r="H18" s="106"/>
       <c r="I18" s="13"/>
       <c r="J18" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="110">
+      <c r="B19" s="117">
         <v>5</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="128" t="s">
         <v>156</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E19" s="28"/>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="107" t="s">
         <v>277</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="100" t="s">
+      <c r="H19" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I19" s="13"/>
@@ -7876,51 +7175,51 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="110"/>
-      <c r="C20" s="121"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="98"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="13"/>
       <c r="J20" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="110"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="99"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="106"/>
       <c r="I21" s="13"/>
       <c r="J21" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="110">
+      <c r="B22" s="117">
         <v>6</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="128" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="100" t="s">
+      <c r="H22" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I22" s="13"/>
@@ -7929,51 +7228,51 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="110"/>
-      <c r="C23" s="121"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="98"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="98"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="13"/>
       <c r="J23" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="110"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="99"/>
+      <c r="F24" s="106"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="99"/>
+      <c r="H24" s="106"/>
       <c r="I24" s="13"/>
       <c r="J24" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="110">
+      <c r="B25" s="117">
         <v>7</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="128" t="s">
         <v>158</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="100" t="s">
+      <c r="F25" s="107" t="s">
         <v>277</v>
       </c>
       <c r="G25" s="29"/>
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="107" t="s">
         <v>282</v>
       </c>
       <c r="I25" s="13"/>
@@ -7982,51 +7281,51 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="110"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="98"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="98"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="13"/>
       <c r="J26" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="110"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="99"/>
+      <c r="F27" s="106"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="99"/>
+      <c r="H27" s="106"/>
       <c r="I27" s="13"/>
       <c r="J27" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="110">
+      <c r="B28" s="117">
         <v>8</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="128" t="s">
         <v>159</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="100" t="s">
+      <c r="F28" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G28" s="28"/>
-      <c r="H28" s="100" t="s">
+      <c r="H28" s="107" t="s">
         <v>283</v>
       </c>
       <c r="I28" s="13"/>
@@ -8035,51 +7334,51 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="110"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="98"/>
+      <c r="F29" s="105"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="98"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="13"/>
       <c r="J29" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="110"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="99"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="99"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="13"/>
       <c r="J30" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="110">
+      <c r="B31" s="117">
         <v>9</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="128" t="s">
         <v>160</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E31" s="28"/>
-      <c r="F31" s="100" t="s">
+      <c r="F31" s="107" t="s">
         <v>277</v>
       </c>
       <c r="G31" s="28"/>
-      <c r="H31" s="107" t="s">
+      <c r="H31" s="114" t="s">
         <v>284</v>
       </c>
       <c r="I31" s="13"/>
@@ -8088,51 +7387,51 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="110"/>
-      <c r="C32" s="121"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="98"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="98"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="13"/>
       <c r="J32" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="110"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E33" s="28"/>
-      <c r="F33" s="99"/>
+      <c r="F33" s="106"/>
       <c r="G33" s="28"/>
-      <c r="H33" s="99"/>
+      <c r="H33" s="106"/>
       <c r="I33" s="13"/>
       <c r="J33" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="110">
+      <c r="B34" s="117">
         <v>10</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="128" t="s">
         <v>161</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="100" t="s">
+      <c r="F34" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="100" t="s">
+      <c r="H34" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I34" s="13"/>
@@ -8141,51 +7440,51 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="110"/>
-      <c r="C35" s="121"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="128"/>
       <c r="D35" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="98"/>
+      <c r="F35" s="105"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="98"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="13"/>
       <c r="J35" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="110"/>
-      <c r="C36" s="121"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="128"/>
       <c r="D36" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="99"/>
+      <c r="F36" s="106"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="99"/>
+      <c r="H36" s="106"/>
       <c r="I36" s="13"/>
       <c r="J36" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="110">
+      <c r="B37" s="117">
         <v>11</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="128" t="s">
         <v>162</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="100" t="s">
+      <c r="F37" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G37" s="29"/>
-      <c r="H37" s="107" t="s">
+      <c r="H37" s="114" t="s">
         <v>285</v>
       </c>
       <c r="I37" s="13"/>
@@ -8194,51 +7493,51 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="110"/>
-      <c r="C38" s="121"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="98"/>
+      <c r="F38" s="105"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="104"/>
+      <c r="H38" s="111"/>
       <c r="I38" s="13"/>
       <c r="J38" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="110"/>
-      <c r="C39" s="121"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E39" s="14"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="106"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="108"/>
+      <c r="H39" s="115"/>
       <c r="I39" s="13"/>
       <c r="J39" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="110">
+      <c r="B40" s="117">
         <v>12</v>
       </c>
-      <c r="C40" s="121" t="s">
+      <c r="C40" s="128" t="s">
         <v>163</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E40" s="14"/>
-      <c r="F40" s="100" t="s">
+      <c r="F40" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="100" t="s">
+      <c r="H40" s="107" t="s">
         <v>286</v>
       </c>
       <c r="I40" s="13"/>
@@ -8247,51 +7546,51 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="110"/>
-      <c r="C41" s="121"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="98"/>
+      <c r="F41" s="105"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="98"/>
+      <c r="H41" s="105"/>
       <c r="I41" s="13"/>
       <c r="J41" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="120"/>
-      <c r="C42" s="122"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="24" t="s">
         <v>200</v>
       </c>
       <c r="E42" s="73"/>
-      <c r="F42" s="105"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="74"/>
-      <c r="H42" s="105"/>
+      <c r="H42" s="112"/>
       <c r="I42" s="13"/>
       <c r="J42" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="114">
+      <c r="B43" s="121">
         <v>13</v>
       </c>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="130" t="s">
         <v>164</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>198</v>
       </c>
       <c r="E43" s="65"/>
-      <c r="F43" s="100" t="s">
+      <c r="F43" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G43" s="29"/>
-      <c r="H43" s="106" t="s">
+      <c r="H43" s="113" t="s">
         <v>287</v>
       </c>
       <c r="I43" s="70"/>
@@ -8300,51 +7599,51 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="110"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E44" s="14"/>
-      <c r="F44" s="98"/>
+      <c r="F44" s="105"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="98"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="13"/>
       <c r="J44" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="110"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="125"/>
       <c r="D45" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E45" s="14"/>
-      <c r="F45" s="99"/>
+      <c r="F45" s="106"/>
       <c r="G45" s="29"/>
-      <c r="H45" s="99"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="13"/>
       <c r="J45" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="110">
+      <c r="B46" s="117">
         <v>14</v>
       </c>
-      <c r="C46" s="118" t="s">
+      <c r="C46" s="125" t="s">
         <v>165</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E46" s="65"/>
-      <c r="F46" s="100" t="s">
+      <c r="F46" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G46" s="65"/>
-      <c r="H46" s="100" t="s">
+      <c r="H46" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I46" s="13"/>
@@ -8353,51 +7652,51 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="110"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="125"/>
       <c r="D47" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E47" s="14"/>
-      <c r="F47" s="98"/>
+      <c r="F47" s="105"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="98"/>
+      <c r="H47" s="105"/>
       <c r="I47" s="13"/>
       <c r="J47" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="110"/>
-      <c r="C48" s="118"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E48" s="14"/>
-      <c r="F48" s="99"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="99"/>
+      <c r="H48" s="106"/>
       <c r="I48" s="13"/>
       <c r="J48" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="110">
+      <c r="B49" s="117">
         <v>15</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="125" t="s">
         <v>166</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E49" s="65"/>
-      <c r="F49" s="100" t="s">
+      <c r="F49" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G49" s="65"/>
-      <c r="H49" s="100" t="s">
+      <c r="H49" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I49" s="13"/>
@@ -8406,51 +7705,51 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="110"/>
-      <c r="C50" s="118"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="98"/>
+      <c r="F50" s="105"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="98"/>
+      <c r="H50" s="105"/>
       <c r="I50" s="13"/>
       <c r="J50" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="110"/>
-      <c r="C51" s="118"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="125"/>
       <c r="D51" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="99"/>
+      <c r="F51" s="106"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="99"/>
+      <c r="H51" s="106"/>
       <c r="I51" s="13"/>
       <c r="J51" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="110">
+      <c r="B52" s="117">
         <v>16</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="125" t="s">
         <v>167</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E52" s="14"/>
-      <c r="F52" s="100" t="s">
+      <c r="F52" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G52" s="29"/>
-      <c r="H52" s="100" t="s">
+      <c r="H52" s="107" t="s">
         <v>288</v>
       </c>
       <c r="I52" s="13"/>
@@ -8459,51 +7758,51 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="110"/>
-      <c r="C53" s="118"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="125"/>
       <c r="D53" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E53" s="14"/>
-      <c r="F53" s="98"/>
+      <c r="F53" s="105"/>
       <c r="G53" s="29"/>
-      <c r="H53" s="98"/>
+      <c r="H53" s="105"/>
       <c r="I53" s="13"/>
       <c r="J53" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="110"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E54" s="14"/>
-      <c r="F54" s="99"/>
+      <c r="F54" s="106"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="99"/>
+      <c r="H54" s="106"/>
       <c r="I54" s="13"/>
       <c r="J54" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="110">
+      <c r="B55" s="117">
         <v>17</v>
       </c>
-      <c r="C55" s="118" t="s">
+      <c r="C55" s="125" t="s">
         <v>168</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E55" s="29"/>
-      <c r="F55" s="100" t="s">
+      <c r="F55" s="107" t="s">
         <v>289</v>
       </c>
       <c r="G55" s="29"/>
-      <c r="H55" s="100" t="s">
+      <c r="H55" s="107" t="s">
         <v>290</v>
       </c>
       <c r="I55" s="13"/>
@@ -8512,51 +7811,51 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="110"/>
-      <c r="C56" s="118"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="125"/>
       <c r="D56" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E56" s="29"/>
-      <c r="F56" s="98"/>
+      <c r="F56" s="105"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="98"/>
+      <c r="H56" s="105"/>
       <c r="I56" s="13"/>
       <c r="J56" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="110"/>
-      <c r="C57" s="118"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E57" s="29"/>
-      <c r="F57" s="99"/>
+      <c r="F57" s="106"/>
       <c r="G57" s="29"/>
-      <c r="H57" s="99"/>
+      <c r="H57" s="106"/>
       <c r="I57" s="13"/>
       <c r="J57" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="110">
+      <c r="B58" s="117">
         <v>18</v>
       </c>
-      <c r="C58" s="118" t="s">
+      <c r="C58" s="125" t="s">
         <v>169</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E58" s="14"/>
-      <c r="F58" s="100" t="s">
+      <c r="F58" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="H58" s="100" t="s">
+      <c r="H58" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I58" s="13"/>
@@ -8565,51 +7864,51 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="110"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="125"/>
       <c r="D59" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E59" s="14"/>
-      <c r="F59" s="98"/>
+      <c r="F59" s="105"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="98"/>
+      <c r="H59" s="105"/>
       <c r="I59" s="13"/>
       <c r="J59" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="110"/>
-      <c r="C60" s="118"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="125"/>
       <c r="D60" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E60" s="14"/>
-      <c r="F60" s="99"/>
+      <c r="F60" s="106"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="99"/>
+      <c r="H60" s="106"/>
       <c r="I60" s="13"/>
       <c r="J60" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="110">
+      <c r="B61" s="117">
         <v>19</v>
       </c>
-      <c r="C61" s="118" t="s">
+      <c r="C61" s="125" t="s">
         <v>170</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E61" s="28"/>
-      <c r="F61" s="100" t="s">
+      <c r="F61" s="107" t="s">
         <v>281</v>
       </c>
       <c r="G61" s="65"/>
-      <c r="H61" s="100" t="s">
+      <c r="H61" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I61" s="13"/>
@@ -8618,51 +7917,51 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="110"/>
-      <c r="C62" s="118"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="125"/>
       <c r="D62" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E62" s="28"/>
-      <c r="F62" s="98"/>
+      <c r="F62" s="105"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="98"/>
+      <c r="H62" s="105"/>
       <c r="I62" s="13"/>
       <c r="J62" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="110"/>
-      <c r="C63" s="118"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E63" s="28"/>
-      <c r="F63" s="99"/>
+      <c r="F63" s="106"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="99"/>
+      <c r="H63" s="106"/>
       <c r="I63" s="13"/>
       <c r="J63" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="110">
+      <c r="B64" s="117">
         <v>20</v>
       </c>
-      <c r="C64" s="118" t="s">
+      <c r="C64" s="125" t="s">
         <v>171</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E64" s="14"/>
-      <c r="F64" s="100" t="s">
+      <c r="F64" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G64" s="65"/>
-      <c r="H64" s="100" t="s">
+      <c r="H64" s="107" t="s">
         <v>291</v>
       </c>
       <c r="I64" s="13"/>
@@ -8671,51 +7970,51 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="110"/>
-      <c r="C65" s="118"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E65" s="14"/>
-      <c r="F65" s="98"/>
+      <c r="F65" s="105"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="98"/>
+      <c r="H65" s="105"/>
       <c r="I65" s="13"/>
       <c r="J65" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="110"/>
-      <c r="C66" s="118"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E66" s="14"/>
-      <c r="F66" s="99"/>
+      <c r="F66" s="106"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="99"/>
+      <c r="H66" s="106"/>
       <c r="I66" s="13"/>
       <c r="J66" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="110">
+      <c r="B67" s="117">
         <v>21</v>
       </c>
-      <c r="C67" s="118" t="s">
+      <c r="C67" s="125" t="s">
         <v>172</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E67" s="28"/>
-      <c r="F67" s="100" t="s">
+      <c r="F67" s="107" t="s">
         <v>292</v>
       </c>
       <c r="G67" s="29"/>
-      <c r="H67" s="100" t="s">
+      <c r="H67" s="107" t="s">
         <v>288</v>
       </c>
       <c r="I67" s="13"/>
@@ -8724,51 +8023,51 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="110"/>
-      <c r="C68" s="118"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="125"/>
       <c r="D68" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E68" s="28"/>
-      <c r="F68" s="98"/>
+      <c r="F68" s="105"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="98"/>
+      <c r="H68" s="105"/>
       <c r="I68" s="13"/>
       <c r="J68" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="110"/>
-      <c r="C69" s="118"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="125"/>
       <c r="D69" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E69" s="28"/>
-      <c r="F69" s="99"/>
+      <c r="F69" s="106"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="99"/>
+      <c r="H69" s="106"/>
       <c r="I69" s="13"/>
       <c r="J69" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="110">
+      <c r="B70" s="117">
         <v>22</v>
       </c>
-      <c r="C70" s="118" t="s">
+      <c r="C70" s="125" t="s">
         <v>173</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E70" s="14"/>
-      <c r="F70" s="100" t="s">
+      <c r="F70" s="107" t="s">
         <v>278</v>
       </c>
       <c r="G70" s="28"/>
-      <c r="H70" s="100" t="s">
+      <c r="H70" s="107" t="s">
         <v>293</v>
       </c>
       <c r="I70" s="13"/>
@@ -8777,51 +8076,51 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="110"/>
-      <c r="C71" s="118"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="125"/>
       <c r="D71" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E71" s="14"/>
-      <c r="F71" s="98"/>
+      <c r="F71" s="105"/>
       <c r="G71" s="28"/>
-      <c r="H71" s="98"/>
+      <c r="H71" s="105"/>
       <c r="I71" s="13"/>
       <c r="J71" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="110"/>
-      <c r="C72" s="118"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="125"/>
       <c r="D72" s="75" t="s">
         <v>200</v>
       </c>
       <c r="E72" s="76"/>
-      <c r="F72" s="105"/>
+      <c r="F72" s="112"/>
       <c r="G72" s="77"/>
-      <c r="H72" s="105"/>
+      <c r="H72" s="112"/>
       <c r="I72" s="13"/>
       <c r="J72" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="114">
+      <c r="B73" s="121">
         <v>23</v>
       </c>
-      <c r="C73" s="119" t="s">
+      <c r="C73" s="126" t="s">
         <v>174</v>
       </c>
       <c r="D73" s="31" t="s">
         <v>198</v>
       </c>
       <c r="E73" s="65"/>
-      <c r="F73" s="98" t="s">
+      <c r="F73" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G73" s="29"/>
-      <c r="H73" s="98" t="s">
+      <c r="H73" s="105" t="s">
         <v>294</v>
       </c>
       <c r="I73" s="70"/>
@@ -8830,51 +8129,51 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="110"/>
-      <c r="C74" s="116"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="123"/>
       <c r="D74" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E74" s="14"/>
-      <c r="F74" s="98"/>
+      <c r="F74" s="105"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="98"/>
+      <c r="H74" s="105"/>
       <c r="I74" s="13"/>
       <c r="J74" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="110"/>
-      <c r="C75" s="116"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E75" s="14"/>
-      <c r="F75" s="99"/>
+      <c r="F75" s="106"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="99"/>
+      <c r="H75" s="106"/>
       <c r="I75" s="13"/>
       <c r="J75" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="110">
+      <c r="B76" s="117">
         <v>24</v>
       </c>
-      <c r="C76" s="116" t="s">
+      <c r="C76" s="123" t="s">
         <v>175</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E76" s="65"/>
-      <c r="F76" s="98" t="s">
+      <c r="F76" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G76" s="65"/>
-      <c r="H76" s="98" t="s">
+      <c r="H76" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I76" s="13"/>
@@ -8883,51 +8182,51 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="110"/>
-      <c r="C77" s="116"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="123"/>
       <c r="D77" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E77" s="14"/>
-      <c r="F77" s="98"/>
+      <c r="F77" s="105"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="98"/>
+      <c r="H77" s="105"/>
       <c r="I77" s="13"/>
       <c r="J77" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="110"/>
-      <c r="C78" s="116"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="123"/>
       <c r="D78" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E78" s="14"/>
-      <c r="F78" s="99"/>
+      <c r="F78" s="106"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="99"/>
+      <c r="H78" s="106"/>
       <c r="I78" s="13"/>
       <c r="J78" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="110">
+      <c r="B79" s="117">
         <v>25</v>
       </c>
-      <c r="C79" s="116" t="s">
+      <c r="C79" s="123" t="s">
         <v>176</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E79" s="65"/>
-      <c r="F79" s="98" t="s">
+      <c r="F79" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G79" s="29"/>
-      <c r="H79" s="104" t="s">
+      <c r="H79" s="111" t="s">
         <v>295</v>
       </c>
       <c r="I79" s="13"/>
@@ -8936,51 +8235,51 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="110"/>
-      <c r="C80" s="116"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="123"/>
       <c r="D80" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E80" s="14"/>
-      <c r="F80" s="98"/>
+      <c r="F80" s="105"/>
       <c r="G80" s="29"/>
-      <c r="H80" s="98"/>
+      <c r="H80" s="105"/>
       <c r="I80" s="13"/>
       <c r="J80" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="110"/>
-      <c r="C81" s="116"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="123"/>
       <c r="D81" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E81" s="14"/>
-      <c r="F81" s="99"/>
+      <c r="F81" s="106"/>
       <c r="G81" s="29"/>
-      <c r="H81" s="99"/>
+      <c r="H81" s="106"/>
       <c r="I81" s="13"/>
       <c r="J81" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="110">
+      <c r="B82" s="117">
         <v>26</v>
       </c>
-      <c r="C82" s="116" t="s">
+      <c r="C82" s="123" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E82" s="65"/>
-      <c r="F82" s="98" t="s">
+      <c r="F82" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="100" t="s">
+      <c r="H82" s="107" t="s">
         <v>288</v>
       </c>
       <c r="I82" s="13"/>
@@ -8989,51 +8288,51 @@
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="110"/>
-      <c r="C83" s="116"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="123"/>
       <c r="D83" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E83" s="14"/>
-      <c r="F83" s="98"/>
+      <c r="F83" s="105"/>
       <c r="G83" s="29"/>
-      <c r="H83" s="98"/>
+      <c r="H83" s="105"/>
       <c r="I83" s="13"/>
       <c r="J83" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="110"/>
-      <c r="C84" s="116"/>
+      <c r="B84" s="117"/>
+      <c r="C84" s="123"/>
       <c r="D84" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E84" s="14"/>
-      <c r="F84" s="99"/>
+      <c r="F84" s="106"/>
       <c r="G84" s="29"/>
-      <c r="H84" s="99"/>
+      <c r="H84" s="106"/>
       <c r="I84" s="13"/>
       <c r="J84" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="110">
+      <c r="B85" s="117">
         <v>27</v>
       </c>
-      <c r="C85" s="116" t="s">
+      <c r="C85" s="123" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E85" s="65"/>
-      <c r="F85" s="98" t="s">
+      <c r="F85" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G85" s="65"/>
-      <c r="H85" s="98" t="s">
+      <c r="H85" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I85" s="13"/>
@@ -9042,51 +8341,51 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="110"/>
-      <c r="C86" s="116"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="123"/>
       <c r="D86" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E86" s="14"/>
-      <c r="F86" s="98"/>
+      <c r="F86" s="105"/>
       <c r="G86" s="14"/>
-      <c r="H86" s="98"/>
+      <c r="H86" s="105"/>
       <c r="I86" s="13"/>
       <c r="J86" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="110"/>
-      <c r="C87" s="116"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="123"/>
       <c r="D87" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E87" s="14"/>
-      <c r="F87" s="99"/>
+      <c r="F87" s="106"/>
       <c r="G87" s="14"/>
-      <c r="H87" s="99"/>
+      <c r="H87" s="106"/>
       <c r="I87" s="13"/>
       <c r="J87" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="110">
+      <c r="B88" s="117">
         <v>28</v>
       </c>
-      <c r="C88" s="116" t="s">
+      <c r="C88" s="123" t="s">
         <v>179</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E88" s="65"/>
-      <c r="F88" s="98" t="s">
+      <c r="F88" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G88" s="29"/>
-      <c r="H88" s="100" t="s">
+      <c r="H88" s="107" t="s">
         <v>296</v>
       </c>
       <c r="I88" s="13"/>
@@ -9095,51 +8394,51 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="110"/>
-      <c r="C89" s="116"/>
+      <c r="B89" s="117"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E89" s="14"/>
-      <c r="F89" s="98"/>
+      <c r="F89" s="105"/>
       <c r="G89" s="29"/>
-      <c r="H89" s="98"/>
+      <c r="H89" s="105"/>
       <c r="I89" s="13"/>
       <c r="J89" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="110"/>
-      <c r="C90" s="116"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E90" s="14"/>
-      <c r="F90" s="99"/>
+      <c r="F90" s="106"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="99"/>
+      <c r="H90" s="106"/>
       <c r="I90" s="13"/>
       <c r="J90" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="110">
+      <c r="B91" s="117">
         <v>29</v>
       </c>
-      <c r="C91" s="116" t="s">
+      <c r="C91" s="123" t="s">
         <v>180</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E91" s="65"/>
-      <c r="F91" s="98" t="s">
+      <c r="F91" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G91" s="65"/>
-      <c r="H91" s="98" t="s">
+      <c r="H91" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I91" s="13"/>
@@ -9148,51 +8447,51 @@
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="110"/>
-      <c r="C92" s="116"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E92" s="14"/>
-      <c r="F92" s="98"/>
+      <c r="F92" s="105"/>
       <c r="G92" s="14"/>
-      <c r="H92" s="98"/>
+      <c r="H92" s="105"/>
       <c r="I92" s="13"/>
       <c r="J92" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="110"/>
-      <c r="C93" s="116"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E93" s="14"/>
-      <c r="F93" s="99"/>
+      <c r="F93" s="106"/>
       <c r="G93" s="14"/>
-      <c r="H93" s="99"/>
+      <c r="H93" s="106"/>
       <c r="I93" s="13"/>
       <c r="J93" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="110">
+      <c r="B94" s="117">
         <v>30</v>
       </c>
-      <c r="C94" s="116" t="s">
+      <c r="C94" s="123" t="s">
         <v>181</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E94" s="65"/>
-      <c r="F94" s="98" t="s">
+      <c r="F94" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G94" s="29"/>
-      <c r="H94" s="100" t="s">
+      <c r="H94" s="107" t="s">
         <v>297</v>
       </c>
       <c r="I94" s="13"/>
@@ -9201,51 +8500,51 @@
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="110"/>
-      <c r="C95" s="116"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E95" s="14"/>
-      <c r="F95" s="98"/>
+      <c r="F95" s="105"/>
       <c r="G95" s="29"/>
-      <c r="H95" s="98"/>
+      <c r="H95" s="105"/>
       <c r="I95" s="13"/>
       <c r="J95" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="96" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="110"/>
-      <c r="C96" s="116"/>
+      <c r="B96" s="117"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E96" s="78"/>
-      <c r="F96" s="105"/>
+      <c r="F96" s="112"/>
       <c r="G96" s="29"/>
-      <c r="H96" s="105"/>
+      <c r="H96" s="112"/>
       <c r="I96" s="13"/>
       <c r="J96" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="114">
+      <c r="B97" s="121">
         <v>31</v>
       </c>
-      <c r="C97" s="117" t="s">
+      <c r="C97" s="124" t="s">
         <v>182</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>198</v>
       </c>
       <c r="E97" s="65"/>
-      <c r="F97" s="98" t="s">
+      <c r="F97" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G97" s="65"/>
-      <c r="H97" s="98" t="s">
+      <c r="H97" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I97" s="70"/>
@@ -9254,51 +8553,51 @@
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="110"/>
-      <c r="C98" s="113"/>
+      <c r="B98" s="117"/>
+      <c r="C98" s="120"/>
       <c r="D98" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E98" s="14"/>
-      <c r="F98" s="98"/>
+      <c r="F98" s="105"/>
       <c r="G98" s="14"/>
-      <c r="H98" s="98"/>
+      <c r="H98" s="105"/>
       <c r="I98" s="13"/>
       <c r="J98" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="110"/>
-      <c r="C99" s="113"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="120"/>
       <c r="D99" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E99" s="14"/>
-      <c r="F99" s="99"/>
+      <c r="F99" s="106"/>
       <c r="G99" s="14"/>
-      <c r="H99" s="99"/>
+      <c r="H99" s="106"/>
       <c r="I99" s="13"/>
       <c r="J99" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="110">
+      <c r="B100" s="117">
         <v>32</v>
       </c>
-      <c r="C100" s="113" t="s">
+      <c r="C100" s="120" t="s">
         <v>183</v>
       </c>
       <c r="D100" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E100" s="65"/>
-      <c r="F100" s="98" t="s">
+      <c r="F100" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G100" s="29"/>
-      <c r="H100" s="98" t="s">
+      <c r="H100" s="105" t="s">
         <v>298</v>
       </c>
       <c r="I100" s="13"/>
@@ -9307,51 +8606,51 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="110"/>
-      <c r="C101" s="113"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="120"/>
       <c r="D101" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E101" s="14"/>
-      <c r="F101" s="98"/>
+      <c r="F101" s="105"/>
       <c r="G101" s="29"/>
-      <c r="H101" s="98"/>
+      <c r="H101" s="105"/>
       <c r="I101" s="13"/>
       <c r="J101" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="110"/>
-      <c r="C102" s="113"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="120"/>
       <c r="D102" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E102" s="14"/>
-      <c r="F102" s="99"/>
+      <c r="F102" s="106"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="99"/>
+      <c r="H102" s="106"/>
       <c r="I102" s="13"/>
       <c r="J102" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B103" s="110">
+      <c r="B103" s="117">
         <v>33</v>
       </c>
-      <c r="C103" s="113" t="s">
+      <c r="C103" s="120" t="s">
         <v>184</v>
       </c>
       <c r="D103" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E103" s="65"/>
-      <c r="F103" s="98" t="s">
+      <c r="F103" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G103" s="29"/>
-      <c r="H103" s="98" t="s">
+      <c r="H103" s="105" t="s">
         <v>298</v>
       </c>
       <c r="I103" s="13"/>
@@ -9360,51 +8659,51 @@
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="110"/>
-      <c r="C104" s="113"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="120"/>
       <c r="D104" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E104" s="14"/>
-      <c r="F104" s="98"/>
+      <c r="F104" s="105"/>
       <c r="G104" s="29"/>
-      <c r="H104" s="98"/>
+      <c r="H104" s="105"/>
       <c r="I104" s="13"/>
       <c r="J104" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="110"/>
-      <c r="C105" s="113"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="120"/>
       <c r="D105" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E105" s="14"/>
-      <c r="F105" s="99"/>
+      <c r="F105" s="106"/>
       <c r="G105" s="29"/>
-      <c r="H105" s="99"/>
+      <c r="H105" s="106"/>
       <c r="I105" s="13"/>
       <c r="J105" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" s="110">
+      <c r="B106" s="117">
         <v>34</v>
       </c>
-      <c r="C106" s="113" t="s">
+      <c r="C106" s="120" t="s">
         <v>185</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E106" s="65"/>
-      <c r="F106" s="98" t="s">
+      <c r="F106" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G106" s="65"/>
-      <c r="H106" s="98" t="s">
+      <c r="H106" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I106" s="13"/>
@@ -9413,51 +8712,51 @@
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="110"/>
-      <c r="C107" s="113"/>
+      <c r="B107" s="117"/>
+      <c r="C107" s="120"/>
       <c r="D107" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E107" s="14"/>
-      <c r="F107" s="98"/>
+      <c r="F107" s="105"/>
       <c r="G107" s="14"/>
-      <c r="H107" s="98"/>
+      <c r="H107" s="105"/>
       <c r="I107" s="13"/>
       <c r="J107" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B108" s="110"/>
-      <c r="C108" s="113"/>
+      <c r="B108" s="117"/>
+      <c r="C108" s="120"/>
       <c r="D108" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E108" s="14"/>
-      <c r="F108" s="99"/>
+      <c r="F108" s="106"/>
       <c r="G108" s="14"/>
-      <c r="H108" s="99"/>
+      <c r="H108" s="106"/>
       <c r="I108" s="13"/>
       <c r="J108" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B109" s="110">
+      <c r="B109" s="117">
         <v>35</v>
       </c>
-      <c r="C109" s="113" t="s">
+      <c r="C109" s="120" t="s">
         <v>186</v>
       </c>
       <c r="D109" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E109" s="28"/>
-      <c r="F109" s="98" t="s">
+      <c r="F109" s="105" t="s">
         <v>299</v>
       </c>
       <c r="G109" s="69"/>
-      <c r="H109" s="98" t="s">
+      <c r="H109" s="105" t="s">
         <v>300</v>
       </c>
       <c r="I109" s="13"/>
@@ -9466,100 +8765,100 @@
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B110" s="110"/>
-      <c r="C110" s="113"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="120"/>
       <c r="D110" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E110" s="28"/>
-      <c r="F110" s="98"/>
+      <c r="F110" s="105"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="98"/>
+      <c r="H110" s="105"/>
       <c r="I110" s="13"/>
       <c r="J110" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="110"/>
-      <c r="C111" s="113"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="120"/>
       <c r="D111" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E111" s="28"/>
-      <c r="F111" s="99"/>
+      <c r="F111" s="106"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="99"/>
+      <c r="H111" s="106"/>
       <c r="I111" s="13"/>
       <c r="J111" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="110">
+      <c r="B112" s="117">
         <v>36</v>
       </c>
-      <c r="C112" s="113" t="s">
+      <c r="C112" s="120" t="s">
         <v>187</v>
       </c>
       <c r="D112" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E112" s="28"/>
-      <c r="F112" s="104" t="s">
+      <c r="F112" s="111" t="s">
         <v>301</v>
       </c>
       <c r="G112" s="28"/>
-      <c r="H112" s="98" t="s">
+      <c r="H112" s="105" t="s">
         <v>302</v>
       </c>
       <c r="I112" s="65"/>
-      <c r="J112" s="101" t="s">
+      <c r="J112" s="108" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="110"/>
-      <c r="C113" s="113"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="120"/>
       <c r="D113" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E113" s="28"/>
-      <c r="F113" s="98"/>
+      <c r="F113" s="105"/>
       <c r="G113" s="28"/>
-      <c r="H113" s="98"/>
+      <c r="H113" s="105"/>
       <c r="I113" s="14"/>
-      <c r="J113" s="102"/>
+      <c r="J113" s="109"/>
     </row>
     <row r="114" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="110"/>
-      <c r="C114" s="113"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="120"/>
       <c r="D114" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E114" s="77"/>
-      <c r="F114" s="105"/>
+      <c r="F114" s="112"/>
       <c r="G114" s="77"/>
-      <c r="H114" s="105"/>
+      <c r="H114" s="112"/>
       <c r="I114" s="14"/>
-      <c r="J114" s="103"/>
+      <c r="J114" s="110"/>
     </row>
     <row r="115" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="114">
+      <c r="B115" s="121">
         <v>37</v>
       </c>
-      <c r="C115" s="115" t="s">
+      <c r="C115" s="122" t="s">
         <v>188</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>198</v>
       </c>
       <c r="E115" s="65"/>
-      <c r="F115" s="98" t="s">
+      <c r="F115" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G115" s="65"/>
-      <c r="H115" s="98" t="s">
+      <c r="H115" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I115" s="70"/>
@@ -9568,51 +8867,51 @@
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" s="110"/>
-      <c r="C116" s="111"/>
+      <c r="B116" s="117"/>
+      <c r="C116" s="118"/>
       <c r="D116" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E116" s="14"/>
-      <c r="F116" s="98"/>
+      <c r="F116" s="105"/>
       <c r="G116" s="14"/>
-      <c r="H116" s="98"/>
+      <c r="H116" s="105"/>
       <c r="I116" s="13"/>
       <c r="J116" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="110"/>
-      <c r="C117" s="111"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="118"/>
       <c r="D117" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E117" s="14"/>
-      <c r="F117" s="99"/>
+      <c r="F117" s="106"/>
       <c r="G117" s="14"/>
-      <c r="H117" s="99"/>
+      <c r="H117" s="106"/>
       <c r="I117" s="13"/>
       <c r="J117" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" s="110">
+      <c r="B118" s="117">
         <v>38</v>
       </c>
-      <c r="C118" s="111" t="s">
+      <c r="C118" s="118" t="s">
         <v>189</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E118" s="28"/>
-      <c r="F118" s="98" t="s">
+      <c r="F118" s="105" t="s">
         <v>303</v>
       </c>
       <c r="G118" s="65"/>
-      <c r="H118" s="100" t="s">
+      <c r="H118" s="107" t="s">
         <v>278</v>
       </c>
       <c r="I118" s="13"/>
@@ -9621,149 +8920,149 @@
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B119" s="110"/>
-      <c r="C119" s="111"/>
+      <c r="B119" s="117"/>
+      <c r="C119" s="118"/>
       <c r="D119" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E119" s="28"/>
-      <c r="F119" s="98"/>
+      <c r="F119" s="105"/>
       <c r="G119" s="14"/>
-      <c r="H119" s="98"/>
+      <c r="H119" s="105"/>
       <c r="I119" s="13"/>
       <c r="J119" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="110"/>
-      <c r="C120" s="111"/>
+      <c r="B120" s="117"/>
+      <c r="C120" s="118"/>
       <c r="D120" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E120" s="28"/>
-      <c r="F120" s="99"/>
+      <c r="F120" s="106"/>
       <c r="G120" s="14"/>
-      <c r="H120" s="99"/>
+      <c r="H120" s="106"/>
       <c r="I120" s="13"/>
       <c r="J120" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="110">
+      <c r="B121" s="117">
         <v>39</v>
       </c>
-      <c r="C121" s="111" t="s">
+      <c r="C121" s="118" t="s">
         <v>190</v>
       </c>
       <c r="D121" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E121" s="28"/>
-      <c r="F121" s="100" t="s">
+      <c r="F121" s="107" t="s">
         <v>281</v>
       </c>
       <c r="G121" s="65"/>
-      <c r="H121" s="98" t="s">
+      <c r="H121" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I121" s="65"/>
-      <c r="J121" s="100" t="s">
+      <c r="J121" s="107" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="110"/>
-      <c r="C122" s="111"/>
+      <c r="B122" s="117"/>
+      <c r="C122" s="118"/>
       <c r="D122" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E122" s="28"/>
-      <c r="F122" s="98"/>
+      <c r="F122" s="105"/>
       <c r="G122" s="14"/>
-      <c r="H122" s="98"/>
+      <c r="H122" s="105"/>
       <c r="I122" s="14"/>
-      <c r="J122" s="98"/>
+      <c r="J122" s="105"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123" s="110"/>
-      <c r="C123" s="111"/>
+      <c r="B123" s="117"/>
+      <c r="C123" s="118"/>
       <c r="D123" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E123" s="28"/>
-      <c r="F123" s="99"/>
+      <c r="F123" s="106"/>
       <c r="G123" s="14"/>
-      <c r="H123" s="99"/>
+      <c r="H123" s="106"/>
       <c r="I123" s="14"/>
-      <c r="J123" s="99"/>
+      <c r="J123" s="106"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B124" s="110">
+      <c r="B124" s="117">
         <v>40</v>
       </c>
-      <c r="C124" s="112" t="s">
+      <c r="C124" s="119" t="s">
         <v>191</v>
       </c>
       <c r="D124" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E124" s="65"/>
-      <c r="F124" s="98" t="s">
+      <c r="F124" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G124" s="65"/>
-      <c r="H124" s="98" t="s">
+      <c r="H124" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I124" s="65"/>
-      <c r="J124" s="100" t="s">
+      <c r="J124" s="107" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="110"/>
-      <c r="C125" s="111"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="118"/>
       <c r="D125" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E125" s="14"/>
-      <c r="F125" s="98"/>
+      <c r="F125" s="105"/>
       <c r="G125" s="14"/>
-      <c r="H125" s="98"/>
+      <c r="H125" s="105"/>
       <c r="I125" s="14"/>
-      <c r="J125" s="98"/>
+      <c r="J125" s="105"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="110"/>
-      <c r="C126" s="111"/>
+      <c r="B126" s="117"/>
+      <c r="C126" s="118"/>
       <c r="D126" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E126" s="14"/>
-      <c r="F126" s="99"/>
+      <c r="F126" s="106"/>
       <c r="G126" s="14"/>
-      <c r="H126" s="99"/>
+      <c r="H126" s="106"/>
       <c r="I126" s="14"/>
-      <c r="J126" s="99"/>
+      <c r="J126" s="106"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="110">
+      <c r="B127" s="117">
         <v>41</v>
       </c>
-      <c r="C127" s="111" t="s">
+      <c r="C127" s="118" t="s">
         <v>192</v>
       </c>
       <c r="D127" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E127" s="65"/>
-      <c r="F127" s="98" t="s">
+      <c r="F127" s="105" t="s">
         <v>278</v>
       </c>
       <c r="G127" s="65"/>
-      <c r="H127" s="98" t="s">
+      <c r="H127" s="105" t="s">
         <v>278</v>
       </c>
       <c r="I127" s="13"/>
@@ -9772,30 +9071,30 @@
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="110"/>
-      <c r="C128" s="111"/>
+      <c r="B128" s="117"/>
+      <c r="C128" s="118"/>
       <c r="D128" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E128" s="14"/>
-      <c r="F128" s="98"/>
+      <c r="F128" s="105"/>
       <c r="G128" s="14"/>
-      <c r="H128" s="98"/>
+      <c r="H128" s="105"/>
       <c r="I128" s="13"/>
       <c r="J128" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="110"/>
-      <c r="C129" s="111"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="118"/>
       <c r="D129" s="24" t="s">
         <v>200</v>
       </c>
       <c r="E129" s="14"/>
-      <c r="F129" s="99"/>
+      <c r="F129" s="106"/>
       <c r="G129" s="14"/>
-      <c r="H129" s="99"/>
+      <c r="H129" s="106"/>
       <c r="I129" s="13"/>
       <c r="J129" s="60" t="s">
         <v>267</v>
@@ -10445,12 +9744,12 @@
         <v>193</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
       <c r="I3" t="s">
         <v>208</v>
       </c>
@@ -10471,1109 +9770,1109 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="114"/>
-      <c r="C4" s="124" t="s">
+      <c r="B4" s="121"/>
+      <c r="C4" s="131" t="s">
         <v>201</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="152" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="114"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="121"/>
       <c r="I4" s="29"/>
       <c r="J4" s="26"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="110"/>
-      <c r="C5" s="125"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="110"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="117"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="110"/>
-      <c r="C6" s="125"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="156"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="134" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="133" t="s">
         <v>238</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="150" t="s">
+      <c r="E7" s="157" t="s">
         <v>262</v>
       </c>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="114"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="121"/>
       <c r="I7" s="29"/>
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="128"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="110"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="29"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="128"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="128"/>
-      <c r="C10" s="121" t="s">
+      <c r="B10" s="135"/>
+      <c r="C10" s="128" t="s">
         <v>239</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="110"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="117"/>
       <c r="I10" s="14"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="128"/>
-      <c r="C11" s="121"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="110"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="117"/>
       <c r="I11" s="14"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="128"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="142"/>
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="128"/>
-      <c r="C13" s="143" t="s">
+      <c r="B13" s="135"/>
+      <c r="C13" s="150" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="131" t="s">
+      <c r="E13" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="110"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="117"/>
       <c r="I13" s="14"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="128"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="110"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="117"/>
       <c r="I14" s="14"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="128"/>
-      <c r="C15" s="121"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="64"/>
       <c r="J15" s="64"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="128"/>
-      <c r="C16" s="121" t="s">
+      <c r="B16" s="135"/>
+      <c r="C16" s="128" t="s">
         <v>241</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="110"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="117"/>
       <c r="I16" s="14"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="128"/>
-      <c r="C17" s="121"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="131" t="s">
+      <c r="E17" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="110"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="117"/>
       <c r="I17" s="14"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="128"/>
-      <c r="C18" s="121"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="110"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="117"/>
       <c r="I18" s="14"/>
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="128"/>
-      <c r="C19" s="143" t="s">
+      <c r="B19" s="135"/>
+      <c r="C19" s="150" t="s">
         <v>242</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="138" t="s">
         <v>265</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="110"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="117"/>
       <c r="I19" s="28"/>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="128"/>
-      <c r="C20" s="121"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="135"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="142"/>
       <c r="I20" s="64"/>
       <c r="J20" s="64"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="128"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="133"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
       <c r="I21" s="64"/>
       <c r="J21" s="64"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="128"/>
-      <c r="C22" s="143" t="s">
+      <c r="B22" s="135"/>
+      <c r="C22" s="150" t="s">
         <v>243</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="110"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="117"/>
       <c r="I22" s="14"/>
       <c r="J22" s="25"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="128"/>
-      <c r="C23" s="121"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="110"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="117"/>
       <c r="I23" s="14"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="131" t="s">
+      <c r="E24" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="110"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="117"/>
       <c r="I24" s="14"/>
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="128"/>
-      <c r="C25" s="121" t="s">
+      <c r="B25" s="135"/>
+      <c r="C25" s="128" t="s">
         <v>244</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E25" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="110"/>
+      <c r="E25" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="117"/>
       <c r="I25" s="62"/>
       <c r="J25" s="25"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="128"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E26" s="133"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="135"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="142"/>
       <c r="I26" s="64"/>
       <c r="J26" s="64"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="128"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="142"/>
       <c r="I27" s="64"/>
       <c r="J27" s="64"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="128"/>
-      <c r="C28" s="121" t="s">
+      <c r="B28" s="135"/>
+      <c r="C28" s="128" t="s">
         <v>245</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="131" t="s">
+      <c r="E28" s="138" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="110"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="117"/>
       <c r="I28" s="13"/>
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="128"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="133"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="135"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142"/>
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="128"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E30" s="133"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
       <c r="I30" s="64"/>
       <c r="J30" s="64"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="128"/>
-      <c r="C31" s="143" t="s">
+      <c r="B31" s="135"/>
+      <c r="C31" s="150" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="131" t="s">
+      <c r="E31" s="138" t="s">
         <v>269</v>
       </c>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="110"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="117"/>
       <c r="I31" s="28"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="128"/>
-      <c r="C32" s="121"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="131" t="s">
+      <c r="E32" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="110"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="117"/>
       <c r="I32" s="14"/>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="128"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="135"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
       <c r="I33" s="64"/>
       <c r="J33" s="64"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="128"/>
-      <c r="C34" s="143" t="s">
+      <c r="B34" s="135"/>
+      <c r="C34" s="150" t="s">
         <v>247</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="110"/>
+      <c r="E34" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="117"/>
       <c r="I34" s="62"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="128"/>
-      <c r="C35" s="121"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="128"/>
       <c r="D35" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E35" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="110"/>
+      <c r="E35" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="117"/>
       <c r="I35" s="62"/>
       <c r="J35" s="25"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="128"/>
-      <c r="C36" s="121"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="128"/>
       <c r="D36" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E36" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="110"/>
+      <c r="E36" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="117"/>
       <c r="I36" s="62"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="128"/>
-      <c r="C37" s="143" t="s">
+      <c r="B37" s="135"/>
+      <c r="C37" s="150" t="s">
         <v>248</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E37" s="131" t="s">
+      <c r="E37" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="110"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="117"/>
       <c r="I37" s="14"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="128"/>
-      <c r="C38" s="121"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="133"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="135"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="142"/>
       <c r="I38" s="64"/>
       <c r="J38" s="64"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="128"/>
-      <c r="C39" s="121"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="133"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="135"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="142"/>
       <c r="I39" s="64"/>
       <c r="J39" s="64"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="128"/>
-      <c r="C40" s="143" t="s">
+      <c r="B40" s="135"/>
+      <c r="C40" s="150" t="s">
         <v>249</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E40" s="131" t="s">
+      <c r="E40" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="110"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="117"/>
       <c r="I40" s="14"/>
       <c r="J40" s="25"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="128"/>
-      <c r="C41" s="121"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E41" s="131" t="s">
+      <c r="E41" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="110"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="117"/>
       <c r="I41" s="14"/>
       <c r="J41" s="25"/>
     </row>
     <row r="42" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="129"/>
-      <c r="C42" s="122"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="139"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="141"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="148"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
     </row>
     <row r="43" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="127" t="s">
+      <c r="B43" s="134" t="s">
         <v>237</v>
       </c>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="130" t="s">
         <v>250</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E43" s="136" t="s">
+      <c r="E43" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="138"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="145"/>
       <c r="I43" s="65"/>
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="128"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E44" s="131" t="s">
+      <c r="E44" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="110"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="117"/>
       <c r="I44" s="14"/>
       <c r="J44" s="25"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="128"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="125"/>
       <c r="D45" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="131" t="s">
+      <c r="E45" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="110"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="117"/>
       <c r="I45" s="14"/>
       <c r="J45" s="25"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="128"/>
-      <c r="C46" s="142" t="s">
+      <c r="B46" s="135"/>
+      <c r="C46" s="149" t="s">
         <v>251</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E46" s="131" t="s">
+      <c r="E46" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="110"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="117"/>
       <c r="I46" s="14"/>
       <c r="J46" s="25"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="128"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="125"/>
       <c r="D47" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="131" t="s">
+      <c r="E47" s="138" t="s">
         <v>270</v>
       </c>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="110"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="117"/>
       <c r="I47" s="62"/>
       <c r="J47" s="25"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="128"/>
-      <c r="C48" s="118"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E48" s="133"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="135"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="142"/>
       <c r="I48" s="64"/>
       <c r="J48" s="64"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="128"/>
-      <c r="C49" s="142" t="s">
+      <c r="B49" s="135"/>
+      <c r="C49" s="149" t="s">
         <v>252</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="131" t="s">
+      <c r="E49" s="138" t="s">
         <v>271</v>
       </c>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="110"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="117"/>
       <c r="I49" s="62"/>
       <c r="J49" s="25"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="128"/>
-      <c r="C50" s="118"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E50" s="133"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="135"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="142"/>
       <c r="I50" s="64"/>
       <c r="J50" s="64"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="128"/>
-      <c r="C51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="125"/>
       <c r="D51" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E51" s="133"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="135"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="142"/>
       <c r="I51" s="64"/>
       <c r="J51" s="64"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="128"/>
-      <c r="C52" s="142" t="s">
+      <c r="B52" s="135"/>
+      <c r="C52" s="149" t="s">
         <v>253</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="110"/>
+      <c r="E52" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="117"/>
       <c r="I52" s="62"/>
       <c r="J52" s="25"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="128"/>
-      <c r="C53" s="118"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="125"/>
       <c r="D53" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E53" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="F53" s="132"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="110"/>
+      <c r="E53" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="117"/>
       <c r="I53" s="62"/>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="128"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E54" s="133"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="135"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="142"/>
       <c r="I54" s="64"/>
       <c r="J54" s="64"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="128"/>
-      <c r="C55" s="118" t="s">
+      <c r="B55" s="135"/>
+      <c r="C55" s="125" t="s">
         <v>254</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E55" s="136" t="s">
+      <c r="E55" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="138"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="145"/>
       <c r="I55" s="65"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="128"/>
-      <c r="C56" s="118"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="125"/>
       <c r="D56" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E56" s="133"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="135"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="142"/>
       <c r="I56" s="64"/>
       <c r="J56" s="64"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="128"/>
-      <c r="C57" s="118"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E57" s="133"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="135"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="142"/>
       <c r="I57" s="64"/>
       <c r="J57" s="64"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="128"/>
-      <c r="C58" s="118" t="s">
+      <c r="B58" s="135"/>
+      <c r="C58" s="125" t="s">
         <v>255</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E58" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="110"/>
+      <c r="E58" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="117"/>
       <c r="I58" s="62"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="128"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="125"/>
       <c r="D59" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E59" s="133"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="135"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="142"/>
       <c r="I59" s="64"/>
       <c r="J59" s="64"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="128"/>
-      <c r="C60" s="118"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="125"/>
       <c r="D60" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="133"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="135"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="142"/>
       <c r="I60" s="64"/>
       <c r="J60" s="64"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="128"/>
-      <c r="C61" s="142" t="s">
+      <c r="B61" s="135"/>
+      <c r="C61" s="149" t="s">
         <v>256</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E61" s="131" t="s">
+      <c r="E61" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F61" s="132"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="110"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="117"/>
       <c r="I61" s="14"/>
       <c r="J61" s="25"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="128"/>
-      <c r="C62" s="118"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="125"/>
       <c r="D62" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E62" s="131" t="s">
+      <c r="E62" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="110"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="117"/>
       <c r="I62" s="14"/>
       <c r="J62" s="25"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="128"/>
-      <c r="C63" s="118"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E63" s="133"/>
-      <c r="F63" s="134"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="135"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="141"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="142"/>
       <c r="I63" s="64"/>
       <c r="J63" s="64"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="128"/>
-      <c r="C64" s="142" t="s">
+      <c r="B64" s="135"/>
+      <c r="C64" s="149" t="s">
         <v>257</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E64" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="110"/>
+      <c r="E64" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="117"/>
       <c r="I64" s="62"/>
       <c r="J64" s="25"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="128"/>
-      <c r="C65" s="118"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E65" s="133"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="135"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="142"/>
       <c r="I65" s="64"/>
       <c r="J65" s="64"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="128"/>
-      <c r="C66" s="118"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="133"/>
-      <c r="F66" s="134"/>
-      <c r="G66" s="134"/>
-      <c r="H66" s="135"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="142"/>
       <c r="I66" s="64"/>
       <c r="J66" s="64"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="128"/>
-      <c r="C67" s="142" t="s">
+      <c r="B67" s="135"/>
+      <c r="C67" s="149" t="s">
         <v>258</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E67" s="131" t="s">
+      <c r="E67" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F67" s="132"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="110"/>
+      <c r="F67" s="139"/>
+      <c r="G67" s="139"/>
+      <c r="H67" s="117"/>
       <c r="I67" s="14"/>
       <c r="J67" s="25"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="128"/>
-      <c r="C68" s="118"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="125"/>
       <c r="D68" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E68" s="133"/>
-      <c r="F68" s="134"/>
-      <c r="G68" s="134"/>
-      <c r="H68" s="135"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="141"/>
+      <c r="H68" s="142"/>
       <c r="I68" s="64"/>
       <c r="J68" s="64"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="128"/>
-      <c r="C69" s="118"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="125"/>
       <c r="D69" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E69" s="133"/>
-      <c r="F69" s="134"/>
-      <c r="G69" s="134"/>
-      <c r="H69" s="135"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="141"/>
+      <c r="H69" s="142"/>
       <c r="I69" s="64"/>
       <c r="J69" s="64"/>
     </row>
     <row r="70" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="128"/>
-      <c r="C70" s="142" t="s">
+      <c r="B70" s="135"/>
+      <c r="C70" s="149" t="s">
         <v>259</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E70" s="131" t="s">
+      <c r="E70" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="110"/>
+      <c r="F70" s="139"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="117"/>
       <c r="I70" s="14"/>
       <c r="J70" s="59"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="128"/>
-      <c r="C71" s="118"/>
+      <c r="B71" s="135"/>
+      <c r="C71" s="125"/>
       <c r="D71" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="E71" s="133"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="135"/>
+      <c r="E71" s="140"/>
+      <c r="F71" s="141"/>
+      <c r="G71" s="141"/>
+      <c r="H71" s="142"/>
       <c r="I71" s="64"/>
       <c r="J71" s="64"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="128"/>
-      <c r="C72" s="118"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="125"/>
       <c r="D72" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="133"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134"/>
-      <c r="H72" s="135"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="142"/>
       <c r="I72" s="64"/>
       <c r="J72" s="64"/>
     </row>
     <row r="73" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="128"/>
-      <c r="C73" s="142" t="s">
+      <c r="B73" s="135"/>
+      <c r="C73" s="149" t="s">
         <v>260</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E73" s="131"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="110"/>
+      <c r="E73" s="138"/>
+      <c r="F73" s="139"/>
+      <c r="G73" s="139"/>
+      <c r="H73" s="117"/>
       <c r="I73" s="59"/>
       <c r="J73" s="59"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="128"/>
-      <c r="C74" s="118"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="125"/>
       <c r="D74" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E74" s="131"/>
-      <c r="F74" s="132"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="110"/>
+      <c r="E74" s="138"/>
+      <c r="F74" s="139"/>
+      <c r="G74" s="139"/>
+      <c r="H74" s="117"/>
       <c r="I74" s="59"/>
       <c r="J74" s="59"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="128"/>
-      <c r="C75" s="118"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="125"/>
       <c r="D75" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E75" s="131"/>
-      <c r="F75" s="132"/>
-      <c r="G75" s="132"/>
-      <c r="H75" s="110"/>
+      <c r="E75" s="138"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="117"/>
       <c r="I75" s="59"/>
       <c r="J75" s="59"/>
     </row>
     <row r="76" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="128"/>
-      <c r="C76" s="142" t="s">
+      <c r="B76" s="135"/>
+      <c r="C76" s="149" t="s">
         <v>261</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E76" s="131"/>
-      <c r="F76" s="132"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="110"/>
+      <c r="E76" s="138"/>
+      <c r="F76" s="139"/>
+      <c r="G76" s="139"/>
+      <c r="H76" s="117"/>
       <c r="I76" s="59"/>
       <c r="J76" s="59"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="128"/>
-      <c r="C77" s="118"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="125"/>
       <c r="D77" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E77" s="131"/>
-      <c r="F77" s="132"/>
-      <c r="G77" s="132"/>
-      <c r="H77" s="110"/>
+      <c r="E77" s="138"/>
+      <c r="F77" s="139"/>
+      <c r="G77" s="139"/>
+      <c r="H77" s="117"/>
       <c r="I77" s="59"/>
       <c r="J77" s="59"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="130"/>
-      <c r="C78" s="118"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="125"/>
       <c r="D78" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E78" s="131"/>
-      <c r="F78" s="132"/>
-      <c r="G78" s="132"/>
-      <c r="H78" s="110"/>
+      <c r="E78" s="138"/>
+      <c r="F78" s="139"/>
+      <c r="G78" s="139"/>
+      <c r="H78" s="117"/>
       <c r="I78" s="59"/>
       <c r="J78" s="59"/>
     </row>
